--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/64.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/64.xlsx
@@ -479,13 +479,13 @@
         <v>-9.378091347272415</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.071895014322235</v>
+        <v>-9.063489755897848</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.720292030333372</v>
+        <v>-1.774494164098118</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.726412143580889</v>
+        <v>-7.842017177673331</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.417757757877888</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.730149816598539</v>
+        <v>-9.718445297858036</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.733253410146681</v>
+        <v>-1.778762254824521</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.594245346393665</v>
+        <v>-7.688208803888733</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.381388745276592</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.27121541613855</v>
+        <v>-10.27494672244844</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.731407395445998</v>
+        <v>-1.78042497728542</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.400570910456011</v>
+        <v>-7.501303088520252</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.265380368016427</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.92076383702511</v>
+        <v>-10.92200760579507</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.73309630251258</v>
+        <v>-1.776929332426679</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.981158988921316</v>
+        <v>-7.07046158660473</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.07155955400397</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.5306949495126</v>
+        <v>-11.54424548295379</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.7871020517347</v>
+        <v>-1.834496188021749</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.733635911395644</v>
+        <v>-6.81908937204359</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.803445299105558</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.33013714563408</v>
+        <v>-12.33951123446875</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.571615839262731</v>
+        <v>-1.619913344445858</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.357363127724437</v>
+        <v>-6.443366465091735</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.467664829384884</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.97004963162912</v>
+        <v>-12.98212073484919</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.477848766310289</v>
+        <v>-1.522506611303416</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.686186222543349</v>
+        <v>-5.782584848366978</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.085367714618217</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.58320145061568</v>
+        <v>-13.59649013800003</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.364705085152092</v>
+        <v>-1.415751973931982</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.296978243664517</v>
+        <v>-5.377482813838291</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.67623898613389</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.21617501610461</v>
+        <v>-14.23809153106166</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.288691174853031</v>
+        <v>-1.332812235429648</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.893381823962628</v>
+        <v>-4.983692528964854</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.260770780934986</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.0603012418249</v>
+        <v>-15.08605380151457</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.17802193893192</v>
+        <v>-1.215675401904724</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.328448956342148</v>
+        <v>-4.413745309355993</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.857067445442119</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.84010498368379</v>
+        <v>-15.86638123548713</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9372283050668944</v>
+        <v>-0.9800663199650221</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.808553610497206</v>
+        <v>-3.884344951647957</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.48203010510026</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.60489185418322</v>
+        <v>-16.63675851929997</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8478864304749557</v>
+        <v>-0.8932512598215365</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.341027476019168</v>
+        <v>-3.407837497420496</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.160958736819995</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.3379429825943</v>
+        <v>-17.36764941774218</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6627088990815821</v>
+        <v>-0.7085319590276234</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.761038460130703</v>
+        <v>-2.824850344181276</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.908423998549748</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.10075291536463</v>
+        <v>-18.13470125663322</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4813674124208344</v>
+        <v>-0.5277272567833864</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.480195471872837</v>
+        <v>-2.546141401286611</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.734243111142534</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.96805251711477</v>
+        <v>-19.00473714967729</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3197429338397261</v>
+        <v>-0.36467571719253</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.91126945188563</v>
+        <v>-1.982923625338397</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.63751550745486</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.80036948567182</v>
+        <v>-19.82851793678153</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.07818994640988015</v>
+        <v>-0.1165373014332958</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.641646567163124</v>
+        <v>-1.706898604526287</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.619932944666565</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.5370602742729</v>
+        <v>-20.57776424380783</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02622116875288524</v>
+        <v>-0.0005394982556028484</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.200108653825912</v>
+        <v>-1.264692983744147</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.683215087215708</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.25221422469935</v>
+        <v>-21.29689825429816</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3038434505116865</v>
+        <v>0.2693190479180549</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8163339806263958</v>
+        <v>-0.8852256781795584</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.820620026228048</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.89609367845544</v>
+        <v>-21.94403769146184</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4551250098478312</v>
+        <v>0.4228786679486599</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5856083276466574</v>
+        <v>-0.6493416578801798</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.021966343711676</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.51471808002984</v>
+        <v>-22.56136595505491</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6418998021878953</v>
+        <v>0.6119707978917095</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2411629321836863</v>
+        <v>-0.3075409075912374</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.269887168903517</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.96722734314842</v>
+        <v>-23.01388831047633</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8088004788142192</v>
+        <v>0.7827860730677095</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1290666352528277</v>
+        <v>-0.1996341475697312</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.556809071926452</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.41106950178577</v>
+        <v>-23.46190691372019</v>
       </c>
       <c r="F23" t="n">
-        <v>0.88867661845159</v>
+        <v>0.8639321660807278</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01917750982403661</v>
+        <v>-0.06156272180088805</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.874001871322546</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.90502899570125</v>
+        <v>-23.95104844018992</v>
       </c>
       <c r="F24" t="n">
-        <v>1.032875241950361</v>
+        <v>1.012830926299678</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03790493056588905</v>
+        <v>-0.1016513531022533</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.209659590339847</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.15799847120908</v>
+        <v>-24.20293125456189</v>
       </c>
       <c r="F25" t="n">
-        <v>1.088596082844747</v>
+        <v>1.068839797856582</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1611373495368724</v>
+        <v>0.08576496207705539</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.550228598145563</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.422541542429</v>
+        <v>-24.4723053855304</v>
       </c>
       <c r="F26" t="n">
-        <v>1.226130724197079</v>
+        <v>1.207578931070354</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05747249563608536</v>
+        <v>-0.01776896879531436</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.880023546123279</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.47502858452148</v>
+        <v>-24.51718579967184</v>
       </c>
       <c r="F27" t="n">
-        <v>1.195010320342297</v>
+        <v>1.176445434912729</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.144725029451532</v>
+        <v>-0.2230431850507374</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.194832094967229</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.5558604622663</v>
+        <v>-24.60224649123453</v>
       </c>
       <c r="F28" t="n">
-        <v>1.122531331810501</v>
+        <v>1.104175923226401</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5031530043494666</v>
+        <v>-0.5874019731359739</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.488938169544074</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.36416296405774</v>
+        <v>-24.41433266854724</v>
       </c>
       <c r="F29" t="n">
-        <v>1.141344970994061</v>
+        <v>1.115893534269746</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5586512760955434</v>
+        <v>-0.6355030937764754</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.75595663955918</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.1058256443848</v>
+        <v>-24.15435881101908</v>
       </c>
       <c r="F30" t="n">
-        <v>1.027808520750613</v>
+        <v>0.9986388700192472</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8766371275153861</v>
+        <v>-0.9587127740301669</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.987495268627542</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.87973466661104</v>
+        <v>-23.93172420119553</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9606842840810833</v>
+        <v>0.9311480488701493</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.100633336834477</v>
+        <v>-1.172496987132712</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.176073038496778</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.53480485594292</v>
+        <v>-23.58357368402835</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9347353398487823</v>
+        <v>0.9047277817355461</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.347082845527129</v>
+        <v>-1.421669694816442</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.325162654910537</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.19846359593898</v>
+        <v>-23.24651234736811</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9001716603466254</v>
+        <v>0.8666553650718067</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.631198909495426</v>
+        <v>-1.7042670516551</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.436603195356636</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.74230158032756</v>
+        <v>-22.79803551352479</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8318298395128154</v>
+        <v>0.801259312377385</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.876339187903905</v>
+        <v>-1.938213411133903</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.512568877514152</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.38692411199175</v>
+        <v>-22.43461937124416</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7510896078878907</v>
+        <v>0.7137110832747628</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.167983326006195</v>
+        <v>-2.214657385636948</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.551985278355069</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.81031291023645</v>
+        <v>-21.86113722986803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7996751437335362</v>
+        <v>0.7615241732527465</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.47612376568906</v>
+        <v>-2.511315875727619</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.556693409510835</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.35932235424751</v>
+        <v>-21.41610367167208</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8189731981222403</v>
+        <v>0.7789369360322421</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.657295052412865</v>
+        <v>-2.69176708579513</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.538242388366273</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.877028102164</v>
+        <v>-20.92645154539152</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9142197012957975</v>
+        <v>0.8765269614144682</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.787537281082356</v>
+        <v>-2.823606575411311</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.501560009405766</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.38134042427341</v>
+        <v>-20.42929752958266</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9347877090601492</v>
+        <v>0.8962046925855824</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.853535579707497</v>
+        <v>-2.88321583024969</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.449483298353547</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.72150145335326</v>
+        <v>-19.77288874200704</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9524623178964794</v>
+        <v>0.9154634700657616</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.977716072161269</v>
+        <v>-3.003376985731052</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.378406977661005</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.1866023284517</v>
+        <v>-19.24310870751659</v>
       </c>
       <c r="F41" t="n">
-        <v>1.024430706617448</v>
+        <v>0.9848003059155428</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.135596152129644</v>
+        <v>-3.157499574783851</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.291696389124198</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.42985413189709</v>
+        <v>-18.4818174818759</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9992803928584918</v>
+        <v>0.9622160835135654</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.350872887756145</v>
+        <v>-3.370262588264742</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.198690831175753</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.90477423412683</v>
+        <v>-17.95974881375924</v>
       </c>
       <c r="F43" t="n">
-        <v>1.109124813700574</v>
+        <v>1.07026685886633</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.385371105744094</v>
+        <v>-3.406921036221575</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.103288195683374</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.3504330395053</v>
+        <v>-17.40145374367951</v>
       </c>
       <c r="F44" t="n">
-        <v>1.052998111418094</v>
+        <v>1.021314738541117</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.530604021167361</v>
+        <v>-3.555440119658115</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.008315377647678</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.69529420530533</v>
+        <v>-16.75291343011177</v>
       </c>
       <c r="F45" t="n">
-        <v>1.075844179876906</v>
+        <v>1.040966285106548</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.711081415840555</v>
+        <v>-3.730169993383791</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.910047422723455</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.21989959681942</v>
+        <v>-16.28032057443398</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8956417235633882</v>
+        <v>0.8735288240637129</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.874617370636555</v>
+        <v>-3.885811289566231</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.814596914084573</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.62772164698531</v>
+        <v>-15.67794372068617</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9751250941155072</v>
+        <v>0.949948595750868</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.842135367286233</v>
+        <v>-3.86221895984544</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.72851169400897</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.97332907404731</v>
+        <v>-15.03384169778177</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9601736842702561</v>
+        <v>0.9295769725291422</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.985024760500831</v>
+        <v>-4.012178196594571</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.652994532773741</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.47058464492503</v>
+        <v>-14.52574251679722</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8759901769979574</v>
+        <v>0.8538510928925986</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.0938610740241</v>
+        <v>-4.113263866835537</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.586181060806815</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.9522603754211</v>
+        <v>-14.00104229580937</v>
       </c>
       <c r="F50" t="n">
-        <v>0.868030056870188</v>
+        <v>0.8497532021031384</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.16440240173532</v>
+        <v>-4.192367560605247</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.520996752041478</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.47593621343342</v>
+        <v>-13.51344566107496</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9807940612459746</v>
+        <v>0.957070808496767</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.255328444971108</v>
+        <v>-4.289158955514128</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.460217064589795</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.8336147437155</v>
+        <v>-12.88225264877251</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8686061181952239</v>
+        <v>0.8526204164254764</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.359595544802614</v>
+        <v>-4.398283299699914</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.4038779829415</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.43606696792648</v>
+        <v>-12.47584138395965</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8811092674090724</v>
+        <v>0.8663018728950801</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.547889044272318</v>
+        <v>-4.587388521945805</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.348083252915487</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80115574161698</v>
+        <v>-11.8514301845292</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8598211829884257</v>
+        <v>0.8424738817231386</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.733459344750943</v>
+        <v>-4.768507439458245</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.286082688736732</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.42104691321314</v>
+        <v>-11.46749840369559</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8222069969241468</v>
+        <v>0.8000286359102627</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.951105787191797</v>
+        <v>-4.98980663439194</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.209255354357552</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.03868620872053</v>
+        <v>-11.07510899522622</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7448053025238622</v>
+        <v>0.7239492640969926</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.14962437518089</v>
+        <v>-5.190982959857902</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.119855191247892</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.48107193838858</v>
+        <v>-10.51707577120333</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7268295707221724</v>
+        <v>0.7043762713486121</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.230678822074016</v>
+        <v>-5.272181422082288</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.01691691854511</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.24906323973035</v>
+        <v>-10.27666181412071</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6399097721559529</v>
+        <v>0.6175088419937597</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.370714093269118</v>
+        <v>-5.409977909491454</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.898238303808402</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.743124288714689</v>
+        <v>-9.770840693830623</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6692365305214194</v>
+        <v>0.6485245074258087</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.58500890618249</v>
+        <v>-5.624626214581554</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.760084554569838</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.61471498244304</v>
+        <v>-9.62935217702009</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6511298756913122</v>
+        <v>0.6354322045840827</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.642222269600834</v>
+        <v>-5.679011640586084</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.600129504352577</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.239843075175898</v>
+        <v>-9.247227133978631</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6830881869279656</v>
+        <v>0.6695245611839373</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.65167491225256</v>
+        <v>-5.694539111756371</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.42736477519504</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.966907837834434</v>
+        <v>-8.966528161052025</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6436672630715283</v>
+        <v>0.63154379064009</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.732572251511585</v>
+        <v>-5.787245708178633</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.245914316213818</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.635659483635923</v>
+        <v>-8.647992432912829</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6037619240099473</v>
+        <v>0.593549927793401</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.724900162046334</v>
+        <v>-5.76954491473662</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.059690262298571</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.325463552406907</v>
+        <v>-8.335741010137662</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4991020550931891</v>
+        <v>0.4886151205169665</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.650719174145114</v>
+        <v>-5.693714296677342</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.869214040379314</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.217530607779718</v>
+        <v>-8.224076759200582</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3589227685668281</v>
+        <v>0.3564352310269001</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.669768474779825</v>
+        <v>-5.721731824758636</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.677591587869829</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.017074358970049</v>
+        <v>-8.025296325154654</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3147231541731609</v>
+        <v>0.3082031873579813</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.652002219823602</v>
+        <v>-5.708862091065219</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.494051857745479</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.888665052698401</v>
+        <v>-7.89078600575876</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2188613127660426</v>
+        <v>0.213585114720827</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.603861822274576</v>
+        <v>-5.661088277995761</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.321083052269888</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.740931507432363</v>
+        <v>-7.747660951093011</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1643318714302535</v>
+        <v>0.1574060432269804</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.549777519235406</v>
+        <v>-5.606336267511662</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.159627486078997</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.669552272339273</v>
+        <v>-7.684006174676539</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1594091655617645</v>
+        <v>0.1490924309224844</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.45970247568433</v>
+        <v>-5.516025562509435</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.005410718630396</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.676975608050532</v>
+        <v>-7.691848464078733</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05227485140792011</v>
+        <v>0.04043940963899974</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.362727788535665</v>
+        <v>-5.41509699990257</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.860043898438252</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.75288477992686</v>
+        <v>-7.760831807751788</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05506351191320776</v>
+        <v>0.04129040932371194</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.195316512098514</v>
+        <v>-5.243417632739016</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.726755380028545</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.759195269896572</v>
+        <v>-7.773334956965636</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.01850213775445101</v>
+        <v>-0.02965677977560163</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.11655321820269</v>
+        <v>-5.164248477455098</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.604621028582734</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.977090466091418</v>
+        <v>-7.989371046156958</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.05258140205146397</v>
+        <v>-0.06537258192783034</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.848069363827413</v>
+        <v>-4.896026469136656</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.492001275432732</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.103601388451018</v>
+        <v>-8.114638199746592</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1132380411171808</v>
+        <v>-0.1171395473640152</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.714396951813391</v>
+        <v>-4.758714396932633</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.384362917278096</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.451044921264744</v>
+        <v>-8.459279979752189</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1905219047918898</v>
+        <v>-0.2039676998103425</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.473328379588688</v>
+        <v>-4.514019256820773</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.285572824861528</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.708845456521171</v>
+        <v>-8.719803713999697</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1845518146960627</v>
+        <v>-0.1938342574108465</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.189670546219851</v>
+        <v>-4.215213629064059</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.200058897760853</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.228505140914963</v>
+        <v>-9.23925392154802</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2529721893469232</v>
+        <v>-0.2634984008316709</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.963605753051767</v>
+        <v>-4.001887646560975</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.13098483543297</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.682205803592138</v>
+        <v>-9.690427769776742</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1978012251718895</v>
+        <v>-0.2133417886450183</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.876751415999756</v>
+        <v>-3.913920463767417</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.080791792159519</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.12713462336536</v>
+        <v>-10.13019822223032</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2664834458795844</v>
+        <v>-0.2797328563554112</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.73197673117595</v>
+        <v>-3.767666348722495</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.050773277160178</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.72204886449339</v>
+        <v>-10.73192046083605</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3189443033663809</v>
+        <v>-0.3372604350419556</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.403098083791791</v>
+        <v>-3.439219747332113</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.050948532893618</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.40095022835109</v>
+        <v>-11.41489353087753</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.334039728542891</v>
+        <v>-0.3525522447610916</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.240583328617445</v>
+        <v>-3.275304115753702</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.08835997801464</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.24875539116991</v>
+        <v>-12.26017187924789</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3970398898172768</v>
+        <v>-0.4168223594111249</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.902880469117963</v>
+        <v>-2.935676687736487</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.167851567787271</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.166931681763</v>
+        <v>-13.18071787665534</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3728845910742922</v>
+        <v>-0.3960055978927804</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.762714274894444</v>
+        <v>-2.79757907736196</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.289379568309436</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.11163297791343</v>
+        <v>-14.13679638397522</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4291814932937143</v>
+        <v>-0.4496840395438573</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.483979147394096</v>
+        <v>-2.519289088158231</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.452046943909033</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.33666666251089</v>
+        <v>-15.3576929008747</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4763137835239282</v>
+        <v>-0.5049597421416248</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.283509806281586</v>
+        <v>-2.3177461782127</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.660754570282403</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.40243248303876</v>
+        <v>-16.42207093730135</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5719399634798954</v>
+        <v>-0.6007953989430597</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.039416912100445</v>
+        <v>-2.08230729620994</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.914592537503101</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.57089432705713</v>
+        <v>-17.59984140864019</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.503611234948927</v>
+        <v>-0.5305944711057244</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.979323242056922</v>
+        <v>-2.014279690644331</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.210276338909806</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.95018152373581</v>
+        <v>-18.98028072796894</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6579040239386688</v>
+        <v>-0.6852931214835597</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.950166683628399</v>
+        <v>-1.988370023320555</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.53706908111363</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.4816798332524</v>
+        <v>-20.52144115698272</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6418135837461874</v>
+        <v>-0.6674221281046036</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.937296949934982</v>
+        <v>-1.975042059027678</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.88835391261138</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.11612292001348</v>
+        <v>-22.158267042861</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6746228946675529</v>
+        <v>-0.704826837323415</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.949839376057355</v>
+        <v>-1.990870653163325</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.261754174376737</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.82846520868284</v>
+        <v>-23.87012491632521</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8213876095233021</v>
+        <v>-0.8446395393702076</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.993606944457246</v>
+        <v>-2.033970514118287</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.650087778373427</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.56278947382345</v>
+        <v>-25.60396476626068</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8681271306682642</v>
+        <v>-0.8936702135124718</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.054499244974114</v>
+        <v>-2.102966950094184</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.045528075043352</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.57976346501408</v>
+        <v>-27.62497118672657</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.042608250639947</v>
+        <v>-1.069041610077393</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.24956146501299</v>
+        <v>-2.292582772150902</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.432513666182178</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.63424690384626</v>
+        <v>-29.67356308927997</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.069041610077393</v>
+        <v>-1.097412630335413</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.31516699455288</v>
+        <v>-2.351524319544353</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.807311906536446</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.8347749808779</v>
+        <v>-31.88139667129728</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.299138832520728</v>
+        <v>-1.334789173158748</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.527406315920101</v>
+        <v>-2.563842194728625</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.165221233648765</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.09649648139176</v>
+        <v>-34.13754085080057</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.430310614691982</v>
+        <v>-1.462478402774102</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.747252265238365</v>
+        <v>-2.784277297674767</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.498932161281999</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.31197596826865</v>
+        <v>-36.35337382985418</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.609792994349204</v>
+        <v>-1.633476970189887</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.826395235916599</v>
+        <v>-2.871746972960338</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.79819557382501</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.64952808684178</v>
+        <v>-38.69124016369553</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.881314262983761</v>
+        <v>-1.903793746963005</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.091082322467775</v>
+        <v>-3.133894152760219</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.04788777623876</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.95887938509384</v>
+        <v>-40.9943202488864</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.898386625889372</v>
+        <v>-1.917318095798508</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.347390335200246</v>
+        <v>-3.371192141766505</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.24213257578724</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.28815716827101</v>
+        <v>-43.32602010808929</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.237490361792919</v>
+        <v>-2.254484170881479</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.39262424151841</v>
+        <v>-3.435095671936969</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.3767496192902</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.6325958381389</v>
+        <v>-45.67052423947138</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.275012901737306</v>
+        <v>-2.29127354186673</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.658777665987859</v>
+        <v>-3.693367530095699</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.4394568391362</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.17407366577476</v>
+        <v>-48.20192099391912</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.546377062737762</v>
+        <v>-2.553407629363769</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.681728472869405</v>
+        <v>-3.721489796599727</v>
       </c>
     </row>
   </sheetData>
